--- a/atomica/library/udt_progbook.xlsx
+++ b/atomica/library/udt_progbook.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EA1604-B15B-42D9-AC25-5BA9BCFBEBA7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
     <sheet name="Spending data" sheetId="2" r:id="rId2"/>
     <sheet name="Program effects" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -123,8 +136,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,26 +238,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="86">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -268,8 +262,741 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -557,22 +1284,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="1" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="5" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -600,7 +1324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -620,7 +1344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -640,7 +1364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -660,7 +1384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -682,132 +1406,87 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="16">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:G6 C3:C6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -816,21 +1495,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Testing - pharmacies</v>
@@ -858,7 +1536,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -877,7 +1555,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -896,7 +1574,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -913,7 +1591,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -930,7 +1608,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -949,7 +1627,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Testing - clinics</v>
@@ -977,7 +1655,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -996,7 +1674,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1015,7 +1693,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1032,7 +1710,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1049,7 +1727,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1068,7 +1746,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Testing - outreach</v>
@@ -1096,7 +1774,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1115,7 +1793,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1134,7 +1812,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1151,7 +1829,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1168,7 +1846,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1187,7 +1865,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Adherence</v>
@@ -1215,7 +1893,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -1234,7 +1912,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -1253,7 +1931,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -1270,7 +1948,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1287,7 +1965,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1308,188 +1986,170 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="69" priority="13">
       <formula>COUNTIF(F10:I10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="68" priority="14">
       <formula>AND(COUNTIF(F10:I10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="67" priority="15">
       <formula>COUNTIF(F11:I11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16">
+    <cfRule type="expression" dxfId="66" priority="16">
       <formula>AND(COUNTIF(F11:I11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="1" priority="17">
+    <cfRule type="expression" dxfId="65" priority="17">
       <formula>COUNTIF(F12:I12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="18">
+    <cfRule type="expression" dxfId="64" priority="18">
       <formula>AND(COUNTIF(F12:I12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="1" priority="19">
+    <cfRule type="expression" dxfId="63" priority="19">
       <formula>COUNTIF(F13:I13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="20">
+    <cfRule type="expression" dxfId="62" priority="20">
       <formula>AND(COUNTIF(F13:I13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="1" priority="21">
+    <cfRule type="expression" dxfId="61" priority="21">
       <formula>COUNTIF(F16:I16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="22">
+    <cfRule type="expression" dxfId="60" priority="22">
       <formula>AND(COUNTIF(F16:I16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="1" priority="23">
+    <cfRule type="expression" dxfId="59" priority="23">
       <formula>COUNTIF(F17:I17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="24">
+    <cfRule type="expression" dxfId="58" priority="24">
       <formula>AND(COUNTIF(F17:I17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="1" priority="25">
+    <cfRule type="expression" dxfId="57" priority="25">
       <formula>COUNTIF(F18:I18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="26">
+    <cfRule type="expression" dxfId="56" priority="26">
       <formula>AND(COUNTIF(F18:I18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="1" priority="27">
+    <cfRule type="expression" dxfId="55" priority="27">
       <formula>COUNTIF(F19:I19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="28">
+    <cfRule type="expression" dxfId="54" priority="28">
       <formula>AND(COUNTIF(F19:I19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>COUNTIF(F2:I2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>AND(COUNTIF(F2:I2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="1" priority="29">
+    <cfRule type="expression" dxfId="51" priority="29">
       <formula>COUNTIF(F20:I20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="30">
+    <cfRule type="expression" dxfId="50" priority="30">
       <formula>AND(COUNTIF(F20:I20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="1" priority="31">
+    <cfRule type="expression" dxfId="49" priority="31">
       <formula>COUNTIF(F23:I23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="32">
+    <cfRule type="expression" dxfId="48" priority="32">
       <formula>AND(COUNTIF(F23:I23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="1" priority="33">
+    <cfRule type="expression" dxfId="47" priority="33">
       <formula>COUNTIF(F24:I24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="34">
+    <cfRule type="expression" dxfId="46" priority="34">
       <formula>AND(COUNTIF(F24:I24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="1" priority="35">
+    <cfRule type="expression" dxfId="45" priority="35">
       <formula>COUNTIF(F25:I25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="36">
+    <cfRule type="expression" dxfId="44" priority="36">
       <formula>AND(COUNTIF(F25:I25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="1" priority="37">
+    <cfRule type="expression" dxfId="43" priority="37">
       <formula>COUNTIF(F26:I26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="38">
+    <cfRule type="expression" dxfId="42" priority="38">
       <formula>AND(COUNTIF(F26:I26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="1" priority="39">
+    <cfRule type="expression" dxfId="41" priority="39">
       <formula>COUNTIF(F27:I27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="40">
+    <cfRule type="expression" dxfId="40" priority="40">
       <formula>AND(COUNTIF(F27:I27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>COUNTIF(F3:I3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>AND(COUNTIF(F3:I3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="37" priority="5">
       <formula>COUNTIF(F4:I4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="36" priority="6">
       <formula>AND(COUNTIF(F4:I4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="35" priority="7">
       <formula>COUNTIF(F5:I5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="34" priority="8">
       <formula>AND(COUNTIF(F5:I5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="33" priority="9">
       <formula>COUNTIF(F6:I6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="32" priority="10">
       <formula>AND(COUNTIF(F6:I6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="31" priority="11">
       <formula>COUNTIF(F9:I9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="30" priority="12">
       <formula>AND(COUNTIF(F9:I9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B3 B24 B17 B10" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"people/year,people"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
-      <formula1>"people/year,people"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
-      <formula1>"people/year,people"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4 B25 B18 B11" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1498,25 +2158,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="2" max="5" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1549,7 +2206,7 @@
         <v>Adherence</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -1573,7 +2230,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,7 +2263,7 @@
         <v>Adherence</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -1630,7 +2287,7 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1663,7 +2320,7 @@
         <v>Adherence</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -1685,145 +2342,511 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>COUNTIF(F2:J2,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="28" priority="10">
       <formula>AND(COUNTIF(F2:J2,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="1" priority="19">
+    <cfRule type="expression" dxfId="27" priority="19">
       <formula>COUNTIF(F5:J5,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="20">
+    <cfRule type="expression" dxfId="26" priority="20">
       <formula>AND(COUNTIF(F5:J5,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="1" priority="29">
+    <cfRule type="expression" dxfId="25" priority="29">
       <formula>COUNTIF(F8:J8,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="30">
+    <cfRule type="expression" dxfId="24" priority="30">
       <formula>AND(COUNTIF(F8:J8,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="2" priority="11">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="2" priority="21">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="2" priority="13">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="2" priority="23">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="2" priority="15">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="2" priority="25">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="26">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="2" priority="17">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="2" priority="27">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2 C8 C5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2 D8 D5" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00000000-000E-0000-0200-000001000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{00000000-000E-0000-0200-000002000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="11" id="{00000000-000E-0000-0200-00000B000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="12" id="{00000000-000E-0000-0200-00000C000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="21" id="{00000000-000E-0000-0200-000015000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="22" id="{00000000-000E-0000-0200-000016000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{00000000-000E-0000-0200-000003000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="4" id="{00000000-000E-0000-0200-000004000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="13" id="{00000000-000E-0000-0200-00000D000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="14" id="{00000000-000E-0000-0200-00000E000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="23" id="{00000000-000E-0000-0200-000017000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="24" id="{00000000-000E-0000-0200-000018000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5" id="{00000000-000E-0000-0200-000005000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="6" id="{00000000-000E-0000-0200-000006000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="15" id="{00000000-000E-0000-0200-00000F000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="16" id="{00000000-000E-0000-0200-000010000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="25" id="{00000000-000E-0000-0200-000019000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="26" id="{00000000-000E-0000-0200-00001A000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="7" id="{00000000-000E-0000-0200-000007000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="8" id="{00000000-000E-0000-0200-000008000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="17" id="{00000000-000E-0000-0200-000011000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="18" id="{00000000-000E-0000-0200-000012000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="27" id="{00000000-000E-0000-0200-00001B000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="28" id="{00000000-000E-0000-0200-00001C000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/atomica/library/udt_progbook.xlsx
+++ b/atomica/library/udt_progbook.xlsx
@@ -1,30 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EA1604-B15B-42D9-AC25-5BA9BCFBEBA7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
     <sheet name="Spending data" sheetId="2" r:id="rId2"/>
     <sheet name="Program effects" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -97,7 +84,7 @@
     <t>$/person</t>
   </si>
   <si>
-    <t>Capacity</t>
+    <t>Capacity constraint</t>
   </si>
   <si>
     <t>people/year</t>
@@ -136,8 +123,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,29 +225,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="4">
     <dxf>
       <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
         </patternFill>
       </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -292,711 +268,8 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1284,19 +557,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="5" max="7" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1324,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1344,7 +620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1364,7 +640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1384,7 +660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1406,87 +682,132 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="85" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="84" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="83" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="82" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="81" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="80" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="79" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="78" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="76" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="75" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="74" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="72" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="71" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="70" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:G6 C3:C6" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1495,20 +816,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Testing - pharmacies</v>
@@ -1536,7 +858,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1555,7 +877,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1574,7 +896,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1591,7 +913,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1608,7 +930,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1627,7 +949,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Testing - clinics</v>
@@ -1655,7 +977,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1674,7 +996,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1693,7 +1015,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1710,7 +1032,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1727,7 +1049,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1746,7 +1068,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Testing - outreach</v>
@@ -1774,7 +1096,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1793,7 +1115,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1812,7 +1134,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1829,7 +1151,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1846,7 +1168,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1865,7 +1187,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Adherence</v>
@@ -1893,7 +1215,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -1912,7 +1234,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -1931,7 +1253,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -1948,7 +1270,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1965,7 +1287,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1986,171 +1308,177 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="69" priority="13">
+    <cfRule type="expression" dxfId="1" priority="13">
       <formula>COUNTIF(F10:I10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="14">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>AND(COUNTIF(F10:I10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="67" priority="15">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>COUNTIF(F11:I11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="16">
+    <cfRule type="expression" dxfId="2" priority="16">
       <formula>AND(COUNTIF(F11:I11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="65" priority="17">
+    <cfRule type="expression" dxfId="1" priority="17">
       <formula>COUNTIF(F12:I12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="18">
+    <cfRule type="expression" dxfId="2" priority="18">
       <formula>AND(COUNTIF(F12:I12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="63" priority="19">
+    <cfRule type="expression" dxfId="1" priority="19">
       <formula>COUNTIF(F13:I13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="20">
+    <cfRule type="expression" dxfId="2" priority="20">
       <formula>AND(COUNTIF(F13:I13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="61" priority="21">
+    <cfRule type="expression" dxfId="1" priority="21">
       <formula>COUNTIF(F16:I16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="22">
+    <cfRule type="expression" dxfId="2" priority="22">
       <formula>AND(COUNTIF(F16:I16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="59" priority="23">
+    <cfRule type="expression" dxfId="1" priority="23">
       <formula>COUNTIF(F17:I17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="24">
+    <cfRule type="expression" dxfId="2" priority="24">
       <formula>AND(COUNTIF(F17:I17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="57" priority="25">
+    <cfRule type="expression" dxfId="1" priority="25">
       <formula>COUNTIF(F18:I18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="26">
+    <cfRule type="expression" dxfId="2" priority="26">
       <formula>AND(COUNTIF(F18:I18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="55" priority="27">
+    <cfRule type="expression" dxfId="1" priority="27">
       <formula>COUNTIF(F19:I19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="28">
+    <cfRule type="expression" dxfId="2" priority="28">
       <formula>AND(COUNTIF(F19:I19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="53" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>COUNTIF(F2:I2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(COUNTIF(F2:I2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="51" priority="29">
+    <cfRule type="expression" dxfId="1" priority="29">
       <formula>COUNTIF(F20:I20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="30">
+    <cfRule type="expression" dxfId="2" priority="30">
       <formula>AND(COUNTIF(F20:I20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="49" priority="31">
+    <cfRule type="expression" dxfId="1" priority="31">
       <formula>COUNTIF(F23:I23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="32">
+    <cfRule type="expression" dxfId="2" priority="32">
       <formula>AND(COUNTIF(F23:I23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="47" priority="33">
+    <cfRule type="expression" dxfId="1" priority="33">
       <formula>COUNTIF(F24:I24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="34">
+    <cfRule type="expression" dxfId="2" priority="34">
       <formula>AND(COUNTIF(F24:I24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="45" priority="35">
+    <cfRule type="expression" dxfId="1" priority="35">
       <formula>COUNTIF(F25:I25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="36">
+    <cfRule type="expression" dxfId="2" priority="36">
       <formula>AND(COUNTIF(F25:I25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="43" priority="37">
+    <cfRule type="expression" dxfId="1" priority="37">
       <formula>COUNTIF(F26:I26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="2" priority="38">
       <formula>AND(COUNTIF(F26:I26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="41" priority="39">
+    <cfRule type="expression" dxfId="1" priority="39">
       <formula>COUNTIF(F27:I27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="2" priority="40">
       <formula>AND(COUNTIF(F27:I27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>COUNTIF(F3:I3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(COUNTIF(F3:I3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="37" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>COUNTIF(F4:I4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>AND(COUNTIF(F4:I4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="35" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>COUNTIF(F5:I5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="8">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>AND(COUNTIF(F5:I5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="33" priority="9">
+    <cfRule type="expression" dxfId="1" priority="9">
       <formula>COUNTIF(F6:I6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="10">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>AND(COUNTIF(F6:I6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="31" priority="11">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>COUNTIF(F9:I9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="12">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>AND(COUNTIF(F9:I9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B3 B24 B17 B10" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
       <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4 B25 B18 B11" xr:uid="{00000000-0002-0000-0100-000001000000}">
-      <formula1>"people/year,people"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+      <formula1>"$/person (one-off),$/person/year"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>"$/person (one-off),$/person/year"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2158,22 +1486,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="5" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2206,7 +1537,7 @@
         <v>Adherence</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -2230,7 +1561,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -2263,7 +1594,7 @@
         <v>Adherence</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -2287,7 +1618,7 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -2320,7 +1651,7 @@
         <v>Adherence</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -2342,511 +1673,145 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="29" priority="9">
+    <cfRule type="expression" dxfId="1" priority="9">
       <formula>COUNTIF(F2:J2,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="10">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>AND(COUNTIF(F2:J2,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="27" priority="19">
+    <cfRule type="expression" dxfId="1" priority="19">
       <formula>COUNTIF(F5:J5,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="20">
+    <cfRule type="expression" dxfId="2" priority="20">
       <formula>AND(COUNTIF(F5:J5,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="25" priority="29">
+    <cfRule type="expression" dxfId="1" priority="29">
       <formula>COUNTIF(F8:J8,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="30">
+    <cfRule type="expression" dxfId="2" priority="30">
       <formula>AND(COUNTIF(F8:J8,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2 C8 C5" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <conditionalFormatting sqref="G2">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="expression" dxfId="2" priority="11">
+      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="12">
+      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="2" priority="21">
+      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="22">
+      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="2" priority="13">
+      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="14">
+      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="expression" dxfId="2" priority="23">
+      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="24">
+      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="expression" dxfId="2" priority="15">
+      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="16">
+      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="2" priority="25">
+      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="26">
+      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="expression" dxfId="2" priority="7">
+      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="expression" dxfId="2" priority="17">
+      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="18">
+      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="expression" dxfId="2" priority="27">
+      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="28">
+      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2 D8 D5" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"Synergistic,Best"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
+      <formula1>"Synergistic,Best"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
       <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{00000000-000E-0000-0200-000001000000}">
-            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="2" id="{00000000-000E-0000-0200-000002000000}">
-            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="11" id="{00000000-000E-0000-0200-00000B000000}">
-            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="12" id="{00000000-000E-0000-0200-00000C000000}">
-            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="21" id="{00000000-000E-0000-0200-000015000000}">
-            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="22" id="{00000000-000E-0000-0200-000016000000}">
-            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{00000000-000E-0000-0200-000003000000}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H2)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="4" id="{00000000-000E-0000-0200-000004000000}">
-            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="13" id="{00000000-000E-0000-0200-00000D000000}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="14" id="{00000000-000E-0000-0200-00000E000000}">
-            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="23" id="{00000000-000E-0000-0200-000017000000}">
-            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="24" id="{00000000-000E-0000-0200-000018000000}">
-            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{00000000-000E-0000-0200-000005000000}">
-            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="6" id="{00000000-000E-0000-0200-000006000000}">
-            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="15" id="{00000000-000E-0000-0200-00000F000000}">
-            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="16" id="{00000000-000E-0000-0200-000010000000}">
-            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="25" id="{00000000-000E-0000-0200-000019000000}">
-            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="26" id="{00000000-000E-0000-0200-00001A000000}">
-            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="7" id="{00000000-000E-0000-0200-000007000000}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="8" id="{00000000-000E-0000-0200-000008000000}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="17" id="{00000000-000E-0000-0200-000011000000}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="18" id="{00000000-000E-0000-0200-000012000000}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="27" id="{00000000-000E-0000-0200-00001B000000}">
-            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="28" id="{00000000-000E-0000-0200-00001C000000}">
-            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="lightUp">
-                  <bgColor rgb="FFEEEEEE"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </left>
-                <right style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </right>
-                <top style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </top>
-                <bottom style="thin">
-                  <color rgb="FFCCCCCC"/>
-                </bottom>
-                <vertical/>
-                <horizontal/>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J8</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/atomica/library/udt_progbook.xlsx
+++ b/atomica/library/udt_progbook.xlsx
@@ -1792,24 +1792,15 @@
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
       <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
-      <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
